--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/36_Hakkari_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/36_Hakkari_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102A9F5B-E506-4D97-B778-D54A86D1F5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96048AC3-C88D-4339-BED8-3190BCA18160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{A4AFCE48-F190-4BD7-96E3-484FFB3B95ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{680B085D-501B-40DD-A89E-B1E13A372D2B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{654F2251-D834-4811-9792-089684D9617A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E09AAB09-E6DD-4597-BCAD-BD07A435D45F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D0357A93-221A-470B-9231-68B3139BA06C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2363F1EC-068C-41C9-B2EC-5DB8B412C58F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5ABA630D-321D-4D3D-B799-F7C3AB411065}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{56E24732-0B79-43E7-A106-9F5D8D18A94A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F861E423-41C2-443A-B5A8-14313AB59DC4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6D102BE9-D0D0-47ED-BB67-A471A3285BDC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ABDFD330-39BB-46E6-9114-FB45F8DEE4D0}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{37548172-2405-4B42-92A7-65E5F3C57681}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8F78D8FD-50C4-4BCA-83BE-DA97E872BA42}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3687244B-E598-4F43-8781-FCF9A8650706}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D4767435-B7F4-4260-AC74-D1CB7DC008DA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F969E6ED-6EC9-4DEB-AA85-526B98BC18A2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78652A85-CA59-4616-A930-D8D44A4290F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DE5839-5C8C-45BD-9A41-83B3B8706505}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2575,18 +2575,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06818748-8D3E-41AD-8801-20EFBE5E06AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4968F20B-B940-48E5-B0C7-38774A2E2FB4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{15402A6B-6293-4931-A062-D3FE43D4F5E4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE443184-346F-4CD7-8D6F-4C14B354C16B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7609BEE6-220A-4AE9-BDFD-99AD6EF1E204}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FBA1C9B4-91EE-43D1-9A39-714318C00CD3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB295823-0EA5-4133-B802-246989147968}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32902A90-4A4A-4272-986E-053D6987335B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13D07E55-F621-4CB1-9895-FCD1B560BA6C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D74CFE60-5F61-450C-A7DD-5E57006ABC37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADED7CE0-2A1E-4B08-9F03-40326F9AE713}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C443937-CA02-4B94-AA84-81945C3CA3C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB66A4BA-38AA-4C1E-9170-A3E785313CA1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6894B728-3183-405D-B513-836909C7BF37}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26D87003-2B65-42D7-88FE-D2140188AE00}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1E46607-11A9-46F6-9B71-5A0945533FC4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5334BA59-6103-4907-84D5-7D3861211D8A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{97C9BDBD-1645-4E63-9F53-E7D9E6006984}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{727747B2-9E34-488F-9B81-45A457499C86}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A609DCA-09E9-4F6A-AC89-996711D04FC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1EEDC5AF-9A82-4175-95A4-5EF00D1A874F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6C2FCBB9-5784-472B-B348-8A86907620AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF037A70-F5C6-40EA-88EE-C99A21BCBC89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28255F09-260C-4DB8-A7E1-895DF0A4E244}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE81FC8-A1AE-40C1-BF60-8183373524C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4161546-2AFC-4179-9651-43FDEF3DB439}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3818,18 +3818,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C4F79F6-59D6-43A2-8394-E6BDDD70CE06}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0CE6353-2BC4-4189-A808-B0C0352DA102}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6852D4F7-FEE3-4008-B397-05FECB24157E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A42E4C59-185D-4E92-BC97-12A9AF3EE998}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76341B31-6144-4F25-80A9-D6CC94D8BC2A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C2E05817-666A-45AB-8E3B-6908E00E0097}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1FB678C-4178-4D3E-8026-2C05F0F8DF4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13EECE13-68F9-4E83-946E-CA0FE7B3EC01}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7B3CDB2-98EE-4B86-99A9-E3C90141577D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E8779C0C-4557-427E-8069-B2681DE1F239}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5821C68-81C6-4FE3-BD8F-E9BC751AB60D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D21C531D-EB3D-4AD3-91BD-6F4ED924F33A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A44CB6F8-FE02-47D1-8C2C-4681CD63176B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC089AE7-1AD0-496B-9556-1597F9C83EFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{031A6B17-BF75-479B-87A9-EB8CFC98B9FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DFE2AD0E-2005-4B10-81F4-73672F139254}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2C54BDF-2546-4B6A-A5A0-14A82AD1DC88}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB4E2072-A91D-4A99-A7A3-3D845D5CAF0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12142362-35EF-45B5-94C6-5BCE641988C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B574F53A-AA2C-440F-BFAB-3F847A06A5E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F268668-EFE6-4C60-ACDA-BB1BD55DDB60}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FE08DE1D-9DFB-4757-9558-B76FE21F6F56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{922A4AE3-A90A-40DA-92CE-B98774E671BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F122201A-A5B7-4511-B3DC-FE0085946319}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3842,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB538018-C443-45BC-96BB-89CCC2128695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFAD6B7-4CC1-4223-82EF-1FECDC3FA7C6}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5057,18 +5057,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BCD8B04-7494-44A3-826B-EC436727C28B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8FE4AD8-C08D-48C9-A720-9170BC56E437}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00580F75-538C-4EF4-9DA6-DEA490FD404F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ACD09C70-239F-44ED-8050-04B7DFDB15DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68F37E45-3178-498D-A96E-D43F77CFCD6E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE55CFDB-84E4-435C-988C-7A1EF47611E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FFCB736-0D5C-4888-AB15-612654A275C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2502B82C-5DA2-4C70-97B9-B667FFAA9F57}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A489C7BD-10CA-4562-81E7-40BD1893F7ED}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C6389019-2777-45B6-8C1E-74C86172129C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6BCD5D1-7305-4B72-A767-79C0C4E2B98E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C8F69ED-A42F-4374-A038-D5A462BBC137}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2726F7A0-8704-4090-AC66-7E6C9C2681BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48A6725B-4F0D-45C8-A27A-FFC209B90A33}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8892D408-EC93-4F16-8EDB-5C7FA92C1867}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{601CE728-8A80-4B2A-B142-44E56F272AF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D52CA55-9058-4D8B-BD3C-0913C3F92BC7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7DB0B449-8FA3-4247-A538-B5BA83B86163}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CF6C465-7EA9-428D-AE44-C2EA11D053FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28CC2B21-800A-4F71-8455-05D66075B0D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45F1076D-A8C2-4B51-8ED1-00C86D272299}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{53BBAAE3-53F3-4C48-96D1-89AE4085417D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A633EDE2-BC48-49A9-882B-3708DBA029B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27F34733-B011-4047-AD20-B0CAB0BCC56F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5081,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56CC737-4B02-4434-8073-7EF4C4F6DA2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A4EBEF-6D5B-451C-8EDC-56D4636EE080}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6297,18 +6297,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62D7B787-9EEE-4EE2-B160-FA4AA7EB75C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F9C03F8-F328-42DE-A324-831331EC585F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CF52D02-648D-47CF-B916-9D05268C722B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{346170E9-6182-453A-9ED1-890627F369A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E220C45-9808-42BC-B8BC-3CFB25DC6B06}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6AEF67C6-2BFC-4CC6-A80B-28039DFE168E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B076C60B-6B5D-4FD3-960F-DB941F80BC4F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1AB7ABB-4397-4A04-A1F3-10221A5B3236}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF42A978-5622-49A9-961F-744298D0E187}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3051B5AC-2BF3-499C-97CB-226F20B740A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10133389-D65A-404B-9475-FDF118B0494D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87ED2AAF-2C1B-4E07-99D8-4E360CB608F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0568BD6-0E37-42B5-953B-645EAF6889D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5C6A812-82C0-4FDD-A7CE-1B7B1E7FDD74}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43F12CDA-F3D5-4B63-96A9-C1E400CF0685}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6A22898-7268-4520-8356-5BAFC8406B15}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1374A1C5-4037-4C3E-BFAA-CFD887456207}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A8D2DBDC-45B8-4E42-A74B-5E649848914D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D59AC56-40AC-4FE5-BE2F-63E727239C70}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5CAD7DA-4DDE-4A24-9B50-DF8B354623D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7EA29EB2-515E-46CD-AC9E-F297B828985B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1DD0C82E-E540-4DAA-853A-F80A69CE76FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3E7ECCB-8EAD-471C-B2DE-BABBA8894E30}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AD7210F-3201-4771-8AA6-8E852E5A57C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6321,7 +6321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8E01A4-7291-4717-AB72-8D417388D9DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0EC8A8-FAAC-4815-9CF6-69AF76E47EBD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7566,18 +7566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C10D916-5B87-4206-B297-F305440D4065}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{343D1D65-7376-44B0-B3CC-1D1EB5E3DDBB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28CEBC73-211B-48C1-928C-D11650AEEE4E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CAE00BF-0093-4CE8-B106-F6865988E897}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFC87CD3-9418-469B-8533-73A62F56C62B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BE33AF8-27E3-433F-87A0-4DA4DD946A26}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93DF3B7C-FE67-4EC2-B8DD-17AEF1BE31FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E57675F1-DF20-4330-9373-A0B9592B5AAA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B392DD8-705B-428D-A839-39B248ACD473}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EA5A53BF-FC7D-4270-AAB3-6D8DFC57BE68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C220E12-ECD9-4838-8B12-575D84D6016E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{019D1ACA-193C-433D-A25B-E288E5B42BF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D257280-6E2E-4FA9-804E-AFC6163760A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA43B4F5-712C-48EC-8FEE-E0845D9A1345}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{58C75890-60F8-4173-A563-1CCFAD697C39}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05ED8844-F7CF-4A09-BCD6-029EA1A56BB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9629A784-421E-4865-99A2-F6F778B4975D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C28AB8FC-1E8B-43CA-AAD9-3D68742FC1EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16D8C833-E2AD-44BE-B392-5DBCF736C1F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B98B67C-DBA6-4357-B74A-24876C09ACBA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6B96EF6-E0B3-4492-9F39-E08E17B3D44B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7493FFE3-9F46-49A1-B2AC-64B4EAD698D3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B882F6F9-709E-4802-8970-7647D8EB7607}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F438E0E8-1AF3-469C-B77C-C92EEB7B6897}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7590,7 +7590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6935D243-52A7-4B59-86E5-017A7AAC0CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B874500-6EEE-4774-BFA2-EBB63B01A2E2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8835,18 +8835,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D30DE69-BCD6-4EAD-8039-5DD429C87D27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A1D2F7D-03ED-4906-8F3F-AE172E9E61A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2767BA1-9705-4387-A9E0-24D4A0F29439}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E798B0B-E1F2-4B81-B8DB-8A43ACCD17C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48C90283-507B-426C-83CB-941DA54492E1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8AE0F2DB-289E-4C46-B7C2-446146E956D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81AD929D-F913-471C-BEB3-3BBC59B01065}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E4AA22A-8C46-4366-90A5-385FDF74FE9F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9296298-EE82-4716-813D-EDD6B2083068}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F1F5BBC-4658-42ED-9A5F-19590577F1E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAB9AF8F-8D40-40EF-9C79-04EB05CCCC41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86A7A71A-7E90-45ED-B1DA-09843691FBE1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5EA9FD86-F923-464F-96D5-FC86E43E7299}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61735311-0DA0-4C3A-8892-F2770EAE8F36}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6E11E80-FFC4-460F-8367-1F9EAAE19219}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D4B5358A-746E-4CD4-8FDA-55E993EF1A66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE4DBA27-8ECE-4C0C-8FF8-C806E38991F4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{410C45C8-981D-4895-8B4F-805E9B1DCE59}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74EFFE8D-03B9-4392-AB67-A500CCF4E483}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84AE543B-F8D8-40CE-A3D5-0F56E9B7AAE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FEE68F9E-8B90-450C-AA63-B3535CD89B8D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B7254602-6BA7-45FD-A215-87A33872ADCC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE70CDBD-5DA3-4B73-AC7E-939ACDF2CBB9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47F4E6CA-7C32-40C8-88EA-B12AA2E79408}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8859,7 +8859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C4480E-4A7B-442E-984F-A306DDC516F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC5FBF4-D7B2-4D0B-92B5-9D1B272278C5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10096,18 +10096,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E7900E0-787D-4E65-B704-0D7AA158E676}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CAE3972-0888-4187-99D7-43D806D25767}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4445ECBC-1ACF-4869-983B-9E2883CB1CD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE1C68BF-8F62-462D-B5F5-6003B6DAD590}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24200493-ACF6-4613-ADE4-5EABD64AD6D3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1BA042B-A4E3-49E4-ACC0-0F86E13FC07F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80954BDB-FF77-42FC-BD18-20A3EB4D43B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E36DB0E-E47C-4E98-AA81-7BA744D13F36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F158BF6-B8C3-46D9-B3F6-B6EAC028598F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B7EB5987-A859-440C-90D6-FF8FF5D11914}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3FE453D3-4FEE-4871-82D2-7A7482C845E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00D22379-7DC2-4B15-B1E4-985EEF725175}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CDC7E98-CD41-45D0-82A0-4BF8985F8B3E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31D3A428-E3A1-42C7-9172-75C013566DA7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1925616D-B45D-4F61-8BDD-08D32EFFE67A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97C586B4-3F68-4764-9D83-6BE7F4D9CBC0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D00576D-36A1-40C7-876B-0E8B3C56E64A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C993A6C-325E-42C5-AF92-660DC9A5D7BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{356CCA6C-8D05-4F4E-8E06-C259DD9DFFC9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BA54D56-5A6A-4165-A041-CBB2A46753D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF26E550-6532-4331-AECB-81DB86833E2D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E702CDB2-1E8A-46D9-B7F1-DFB66E461A0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D4F3572-79FF-4974-B068-5E9BC78E52A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4904918E-2F11-46C4-9223-E83EF0A890BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10120,7 +10120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A115F20-9C43-45AB-B610-F31C7F814B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66E407C-EA66-42DF-9FC6-6D98B1D740C4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11357,18 +11357,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{271BC871-04B9-44AD-8C3D-DC099AF0903C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A0AF92E-C8B2-4A03-992D-83B27C4F46F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0316FE10-5DD5-4420-ACB5-D90BA06EF128}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEAF0794-26D5-4AE7-9E0E-4D9F91A7281D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31F157B9-D9F2-46B5-A230-1A75D0CC78C7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D539438-E202-4EC5-BADD-8A35F024E4EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{399E1D14-578A-4B60-96FE-8ED3EE38DC18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7228CD7-C961-4036-A0F8-D38533BF6F71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8806067B-32FE-4BD4-B17D-C96C0FB0855A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{35934D4E-33FD-4478-8BB7-F256BE3DE216}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C98AF277-DDC4-4CA8-9E72-DA07DCF67C7E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA6FD0D5-8BCF-4165-85B4-6BC1A92E8313}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9768538-BC26-44D9-9633-A20A60332394}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3B6A209-620D-40EA-8FE7-2A7AB02A7AF9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A7403DC-EB60-481E-9650-BD663E380AA5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B03C4C2-306D-44A4-A6C6-BE8CC4511A3A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E7B9042-9716-4AFF-B9B1-6F7AC317B320}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EFF89691-83BC-477B-85E9-AFF300D8FCC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEBF6F04-B092-4ECA-ABAF-E7CCA68297C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1A33989-0BA9-40C1-ABFB-B079BDE8E55F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AD9138E-86E0-4C9E-9FE7-F78A295FC434}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F9D88BA-704A-4B06-8D7A-3E5D036B0307}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB8035F0-E8CA-480B-8FA6-601650F96999}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2915FD6F-D956-4687-83AB-3A74BEF3FD7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11381,7 +11381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE8735-AA4B-4EBC-8FA8-1BD4B61BF463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB4E249-D08C-4261-A2FD-B273C48537A9}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12610,18 +12610,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{521B7721-7627-4172-9660-9E503A0F0E9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C06181BD-BCD5-498E-9A02-C091D1A05715}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DCDE21F-B8B6-4EC1-A307-DC9C371EF691}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0533997-EFDA-4869-A013-47639F253197}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60D94A4C-B564-4D6C-B1E9-EDE9410C1464}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6B412644-9F49-4EE3-AC83-FC5ABD423113}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AD85C90-D58A-4EB7-B2EF-B031DFDDCB6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A28C8567-D1FE-4E69-93D1-8E10F0D3AFD9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EABF7FE3-3D38-4188-8003-590602326D80}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1731586C-642E-4DDF-A6BD-70C38B01AEAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{502D517C-E803-428B-9AA1-01EE6B9D2A6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{934D4C1E-11C6-481B-8CC1-D8FD035F5B9F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A898DA6-A521-4733-B420-31F0F3959117}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10B23D98-5DF3-4BA4-BFD6-CBD257DEBF59}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E000DF6E-24E7-406A-8769-BB0C896531B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4C2268F-47C6-4A2C-8892-8C9C7D0C5883}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB9162CA-D70E-445F-8742-FFE6E19C4D99}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{869CD8DD-BFA8-4ACC-9882-F9EE28756C6D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5356DADB-0213-4E90-AF50-9285EF72610B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB5161EE-9030-4D35-A208-4F769E92D907}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EF43165-1CA7-45E6-940C-834B6407F4CE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0BF9DBE4-71AE-4BDC-B2F7-30BF80803EA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC5A6D98-E4E8-4C94-B1DC-C7FD26C525EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5EE8466D-DE88-4E7E-AA32-CEACFF1DE1F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12634,7 +12634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AB6FEC-B62B-4336-A2D9-CF1BEE4A2B86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271B032C-1279-4A9F-B5F3-C31EEB1C976D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13853,18 +13853,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B03C4CF2-EE3D-478B-A161-26BF0D456B79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FDC5082-B9A1-44A7-89AA-F1640B4EC1FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D81ECC5-5155-4E62-803D-0DBD30A58ADA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08533320-7BE8-42A9-AEA4-3EF07E967DF4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03715BAD-5DB7-4F7F-BDE8-D63CF91E0548}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{921451A8-7016-4C6E-9D29-69E40DF202C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF907006-5EA8-4E00-9B3F-871E9F2F573B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BA3C2CC-770D-427F-9561-BCE5B9AAC75E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C4ECBED6-0D15-406B-95A9-65BC6A2C3B00}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9A5FC7DE-A72C-4543-A476-DA2EFBF31C50}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E7DBEBC-4898-4D4C-B3EE-BA8D721579C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94778E2C-F3DA-4834-9595-67AF13CB18BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{235297DA-D3B3-46A3-9C9C-BA242D10CC4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40CFD7B8-047C-4BD5-AB1A-9E86684AE495}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46760E35-031A-4B08-8C22-EC7A0D1A9D20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8618D05D-8051-48E1-8F53-2E16C461683B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A44EFF3D-4916-4B13-9181-638C67967366}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{592F23A6-02FC-4ADE-B08E-CBCD8254D86C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F02E9816-5963-4FEF-8597-04CD78BCF39B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AE20A19-4634-42B2-8661-F335FA098593}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5702ABED-A921-4058-992E-625071B9F388}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8FA693D3-7B33-467E-9FA3-19A38FADDBA6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9C6AC19-A148-46A5-8D9F-A5719EB0E7CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{644D544E-D5C9-4343-AD8B-B7E6F0579D24}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13877,7 +13877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE752A0-E9C7-4A32-8DBC-AAB7138C203E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D141369D-454F-4B1F-AE28-5F8B2006A9CF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15096,18 +15096,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CA1057A-0CDB-4E65-A043-20365A826CC5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{213EAF70-3566-47F9-B063-10BCD02B79AE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60B225DD-6CCE-4EF5-8572-2A6C51BE5FC5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C6AF2C1-01DA-4A5D-8D31-4994713FB75A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91FCD8D2-A95D-4719-AE67-C242C019FD12}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4EC4D31F-9036-40AD-95FE-6492D93AA091}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C202F45C-2135-4EB9-9664-AFD233105339}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{511575D7-4919-41A8-B260-8243CB4E6556}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EBE48CA6-C497-49E0-A6F9-3849BC3F53FD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{257441E5-3644-4102-9E0D-65BDA4F2BC14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A4446E9-0055-447A-9574-61C1CED46FC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76B23230-C92F-4D74-8945-AB12E5C9CCE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C08610DB-B633-4F0C-B6C5-024E6B2164D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D86B4FE0-AE62-4D4C-B1F1-0E4A47E9C367}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D54E5F2A-A6CF-425D-9618-D41D116066E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA000F76-A34D-40C6-A9CA-D99CC38EE877}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D30C29BC-5C7C-470E-BAA2-9D5ABD100BBF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{780FA5B4-00C4-4DBF-8EA7-D1F162195E29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{980C9A92-591A-43B1-A317-3018FF3C331A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2CB532B2-5DAC-409E-8065-C5F3A1C009C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD59299A-BE7F-4EF1-BEBF-2753D06C06EB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{185EBB67-60BC-45CB-AC3E-AE7B502CA7A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DB1EB6C-ED5F-402C-B71E-7C73B1F1957A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD2D1E5F-F768-4374-9862-A66D468DAF0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15120,7 +15120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F163F-EFF5-4A58-8B53-FBFC542FCEE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19EE4BE-F686-4448-9769-FF4836E96BE6}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16339,18 +16339,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{319100CB-57EA-4492-94C3-A6A6A46C3502}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C605E90-8C48-49A1-A745-902C36F3B1E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9FE99252-3DB3-4B80-BF15-95B70B7A3EDA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CCA56FD-F537-4ABA-8942-F7B55B5D2297}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{196ECD23-EB90-4DD8-9086-8D7B5448F17F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F430D043-28EC-40F9-8862-BAE9563C03AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{983202FD-7AE2-4F06-97AF-921BF1FAB052}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10F0804A-40F1-4161-B543-34D517CE59BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF010F29-901B-45A8-B8F2-06F8C3F4C5DB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BBB4B85D-47E4-428C-BAE2-22B0E922587E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C5BA1F9-4413-4287-B948-5AE03BE64752}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42B66C9C-5DA3-4912-BC87-A6ADA2734DF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DEB9780-FEC1-43C2-B67B-F5B614C097B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EFFED6F-DC5C-4EEE-B012-AEA073239766}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E43C7775-E93D-4C66-94D4-0B437BCE2C10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFFFBE2B-9C9D-441B-ADFD-6F2042C57AE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{345B7B33-68F2-426F-9FBE-3B9EFA9F4AA4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0388C791-0D46-46CA-9308-AD028D86E776}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E305987-CBD7-48DA-B0D9-CF464E1E391F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DAED54B-FC57-406A-8C6C-C4C3620FB59D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6113422-69FA-4448-9217-C474BB85C025}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{162B2800-F75D-40D4-A469-C43898FF51C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C63C5926-EF4E-4FBB-836C-13C29EFA0A0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF0225A8-4FC9-4BA3-94E5-1470C3A9F7AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
